--- a/Figures/WorkshopDates.xlsx
+++ b/Figures/WorkshopDates.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agomez/Desktop/Bookdown/ncgr-INBRE-Bookdown/Figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eprice\ncgr-INBRE-Bookdown\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{907BC5B9-12CC-9D43-80A7-D2A14D3B1D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56826589-4BFF-4B72-8521-57D2CDC8A0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="1680" windowWidth="28040" windowHeight="17440" xr2:uid="{73054643-D636-BF47-BA37-E424C87E1F43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{73054643-D636-BF47-BA37-E424C87E1F43}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dates" sheetId="1" r:id="rId1"/>
+    <sheet name="Rates" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,15 +28,36 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Pangenomics</t>
   </si>
@@ -49,16 +71,63 @@
     <t>Differential Expression</t>
   </si>
   <si>
-    <t>March 18th - 22nd, 2024</t>
+    <t>August 5-9, 2024</t>
+  </si>
+  <si>
+    <t>INBRE Student</t>
+  </si>
+  <si>
+    <t>INBRE Researcher</t>
+  </si>
+  <si>
+    <t>Other Student</t>
+  </si>
+  <si>
+    <t>Other IDeA State Researcher</t>
+  </si>
+  <si>
+    <t>Other Non Commercial Researcher</t>
+  </si>
+  <si>
+    <t>Commercial Researcher</t>
+  </si>
+  <si>
+    <t>INBRE student discounted rate $1,000</t>
+  </si>
+  <si>
+    <t>INBRE researcher discounted rate $1,500</t>
+  </si>
+  <si>
+    <t>Other student rate $1,200</t>
+  </si>
+  <si>
+    <t>IDeA state academic/nonprofit/government researcher rate $1,600</t>
+  </si>
+  <si>
+    <t>Other academic/nonprofit/government researcher rate $1,800</t>
+  </si>
+  <si>
+    <t>Commercial researcher rate $2,200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -83,14 +152,32 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -222,25 +309,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent4" xfId="1" builtinId="43"/>
+    <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -251,6 +371,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{414F1ACF-9153-4477-B768-57FD6910AB8F}" name="Table1" displayName="Table1" ref="A2:F3" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:F3" xr:uid="{414F1ACF-9153-4477-B768-57FD6910AB8F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E9D43646-16F1-408E-8811-B324797353B1}" name="INBRE Student" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9BF32EEF-65BB-44A0-8365-1C99A5F79C5D}" name="Other Student" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A3423F29-E2C3-4605-87E7-F0CEC6260B31}" name="INBRE Researcher" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3342D8C0-388C-41A3-899D-8062E9444520}" name="Other IDeA State Researcher" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B449ECED-46E1-494D-A250-2D3D97774C88}" name="Other Non Commercial Researcher" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{D11D313B-7F6F-448E-A7DF-2549A2DA256A}" name="Commercial Researcher" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,18 +688,18 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,33 +713,170 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
-        <v>4</v>
-      </c>
+      <c r="D5" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB101A6F-BD6A-4439-9B95-335E37EBD309}">
+  <dimension ref="A2:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="30.3984375" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" customWidth="1"/>
+    <col min="4" max="4" width="26.296875" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="22.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" s="12" customFormat="1">
+      <c r="A2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1200</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1600</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1800</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="13" t="str" cm="1">
+        <f t="array" ref="A5:A10">TRANSPOSE(Table1[#Headers])</f>
+        <v>INBRE Student</v>
+      </c>
+      <c r="B5" s="14" cm="1">
+        <f t="array" ref="B5:B10">TRANSPOSE(Table1[])</f>
+        <v>1000</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13" t="str">
+        <v>Other Student</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1200</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13" t="str">
+        <v>INBRE Researcher</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1500</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="13" t="str">
+        <v>Other IDeA State Researcher</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1600</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="13" t="str">
+        <v>Other Non Commercial Researcher</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1800</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="13" t="str">
+        <v>Commercial Researcher</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Figures/WorkshopDates.xlsx
+++ b/Figures/WorkshopDates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eprice\ncgr-INBRE-Bookdown\Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eprice\Documents\ncgr-INBRE-Bookdown\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56826589-4BFF-4B72-8521-57D2CDC8A0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA72E0BB-6CDD-459E-BB08-0DC4790B0E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{73054643-D636-BF47-BA37-E424C87E1F43}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="17380" windowHeight="13770" activeTab="1" xr2:uid="{73054643-D636-BF47-BA37-E424C87E1F43}"/>
   </bookViews>
   <sheets>
     <sheet name="Dates" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Pangenomics</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Other Student</t>
   </si>
   <si>
-    <t>Other IDeA State Researcher</t>
-  </si>
-  <si>
     <t>Other Non Commercial Researcher</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
   </si>
   <si>
     <t>Other academic/nonprofit/government researcher rate $1,800</t>
-  </si>
-  <si>
-    <t>Commercial researcher rate $2,200</t>
   </si>
 </sst>
 </file>
@@ -116,7 +110,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -314,7 +308,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -327,9 +321,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -338,10 +331,7 @@
     <cellStyle name="60% - Accent5" xfId="2" builtinId="48"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     </dxf>
@@ -358,7 +348,7 @@
       <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -374,15 +364,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{414F1ACF-9153-4477-B768-57FD6910AB8F}" name="Table1" displayName="Table1" ref="A2:F3" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:F3" xr:uid="{414F1ACF-9153-4477-B768-57FD6910AB8F}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E9D43646-16F1-408E-8811-B324797353B1}" name="INBRE Student" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{9BF32EEF-65BB-44A0-8365-1C99A5F79C5D}" name="Other Student" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{A3423F29-E2C3-4605-87E7-F0CEC6260B31}" name="INBRE Researcher" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{3342D8C0-388C-41A3-899D-8062E9444520}" name="Other IDeA State Researcher" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{B449ECED-46E1-494D-A250-2D3D97774C88}" name="Other Non Commercial Researcher" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{D11D313B-7F6F-448E-A7DF-2549A2DA256A}" name="Commercial Researcher" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{414F1ACF-9153-4477-B768-57FD6910AB8F}" name="Table1" displayName="Table1" ref="A2:E3" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A2:E3" xr:uid="{414F1ACF-9153-4477-B768-57FD6910AB8F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E9D43646-16F1-408E-8811-B324797353B1}" name="INBRE Student" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{9BF32EEF-65BB-44A0-8365-1C99A5F79C5D}" name="Other Student" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{A3423F29-E2C3-4605-87E7-F0CEC6260B31}" name="INBRE Researcher" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B449ECED-46E1-494D-A250-2D3D97774C88}" name="Other Non Commercial Researcher" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D11D313B-7F6F-448E-A7DF-2549A2DA256A}" name="Commercial Researcher" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -687,19 +676,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89268FB1-3BC1-A54E-8FF9-9C124D4636DE}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.8">
+    <row r="1" spans="1:4" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,7 +722,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1">
+    <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -746,43 +735,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB101A6F-BD6A-4439-9B95-335E37EBD309}">
-  <dimension ref="A2:J10"/>
+  <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="30.3984375" customWidth="1"/>
+    <col min="1" max="1" width="30.4140625" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" customWidth="1"/>
-    <col min="4" max="4" width="26.296875" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
-    <col min="6" max="6" width="22.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.9140625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="12" customFormat="1">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>1000</v>
       </c>
@@ -793,84 +778,70 @@
         <v>1500</v>
       </c>
       <c r="D3" s="11">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="E3" s="11">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="12" t="str" cm="1">
+        <f t="array" ref="A5:A9">TRANSPOSE(Table1[#Headers])</f>
+        <v>INBRE Student</v>
+      </c>
+      <c r="B5" s="13" cm="1">
+        <f t="array" ref="B5:B9">TRANSPOSE(Table1[])</f>
+        <v>1000</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="12" t="str">
+        <v>Other Student</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1200</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="12" t="str">
+        <v>INBRE Researcher</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="12" t="str">
+        <v>Other Non Commercial Researcher</v>
+      </c>
+      <c r="B8" s="13">
         <v>1800</v>
       </c>
-      <c r="F3" s="11">
+      <c r="I8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="12" t="str">
+        <v>Commercial Researcher</v>
+      </c>
+      <c r="B9" s="13">
         <v>2200</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="13" t="str" cm="1">
-        <f t="array" ref="A5:A10">TRANSPOSE(Table1[#Headers])</f>
-        <v>INBRE Student</v>
-      </c>
-      <c r="B5" s="14" cm="1">
-        <f t="array" ref="B5:B10">TRANSPOSE(Table1[])</f>
-        <v>1000</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="13" t="str">
-        <v>Other Student</v>
-      </c>
-      <c r="B6" s="14">
-        <v>1200</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="13" t="str">
-        <v>INBRE Researcher</v>
-      </c>
-      <c r="B7" s="14">
-        <v>1500</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="13" t="str">
-        <v>Other IDeA State Researcher</v>
-      </c>
-      <c r="B8" s="14">
-        <v>1600</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="13" t="str">
-        <v>Other Non Commercial Researcher</v>
-      </c>
-      <c r="B9" s="14">
-        <v>1800</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="13" t="str">
-        <v>Commercial Researcher</v>
-      </c>
-      <c r="B10" s="14">
-        <v>2200</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
